--- a/medicine/Bioéthique/Immanuel_Jakobovits/Immanuel_Jakobovits.xlsx
+++ b/medicine/Bioéthique/Immanuel_Jakobovits/Immanuel_Jakobovits.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Immanuel Jakobovits (baron Jakobovits) (8 février 1921, Königsberg, province de Prusse-Orientale-31 octobre 1999, Londres, Royaume-Uni) est le grand-rabbin des United Hebrew Congregations of the Commonwealth de 1967 à 1991. Il est auparavant grand-rabbin d'Irlande, puis rabbin de la Fifth Avenue Synagogue de New York. Il est le premier grand-rabbin à la Chambre des lords en 1988 et devient le baron Jakobovits. Il est un spécialiste de la bioéthique et la loi juive (Halakha). En 1991, il reçoit le prix Templeton. Il est le gendre du rabbin Élie Munk. Son épouse est Lady Amélie Jakobovits.
 </t>
@@ -511,27 +523,11 @@
           <t>Éléments biographiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Immanuel Jakobovits est né le 8 février 1921, à Königsberg, en province de Prusse-Orientale[1],[2]. Il est le fils de Julius (Yoel) Jakobovits, rabbin à Königsberg. La famille Jakobovits s'établit à Berlin dans les années 1920, le rabbin Julius Jakobovits devenant juge au tribunal rabbinique (Dayan).
-Londres
-En 1938, les Jakobovits, face aux persécutions nazies, se réfugient à Londres.
-Il étudie à la Yechiva Etz Chaim à Londres, avec les rabbins Elya Lopian, Leib Gurwicz et Nachman Shlomo Greenspan, dont il reçoit son diplôme rabbinique (Semikha).
-Il étudie aussi au Jew's College de Londres et à l'université de Londres, dont il obtient un baccalauréat B.A. et un doctorat (Ph.D.).
-Famille
-Immanuel Jakobovits épouse Amélie Munk, la fille aînée du rabbin Élie Munk de Paris. Ils ont six enfants. 
-Le rabbinat
-Synagogue de Brondesbury
-Il devient rabbin de la Synagogue de Brondesbury.
-Grand-rabbin d'Irlande
-En 1949, il devient à l'âge de 27 ans, grand-rabbin d'Irlande, position qu'il occupe pendant sept ans.
-Rabbin de la Fifth Avenue Synagogue à New York
-De 1956 à 1966, il devient rabbin de la Fifth Avenue Synagogue à Manhattan, New York.
-Grand-rabbin du Royaume-Uni
-En 1966, Immanuel Jakobovits devient le grand-rabbin du Royaume-Uni (Chief Rabbi of the United Hebrew Congregation of the British Commonwealth). Il dirige cette communauté jusqu'à sa retraite en 1991, soit pendant un quart de siècle.
-Décès
-Il décède à Londres le 31 octobre 1999. Il est enterré à Jérusalem, sur le mont des Oliviers. 
-Amélie Jakobovits décède à Londres le 7 mai 2010, des suites d'une pneumonie. Après des funérailles à Londres[3], le dimanche 9 mai 2010, elle est enterrée à Jérusalem, en Israël[4],[5] ,[6],[7], sur le mont des Oliviers, aux côtés de son époux[8].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Immanuel Jakobovits est né le 8 février 1921, à Königsberg, en province de Prusse-Orientale,. Il est le fils de Julius (Yoel) Jakobovits, rabbin à Königsberg. La famille Jakobovits s'établit à Berlin dans les années 1920, le rabbin Julius Jakobovits devenant juge au tribunal rabbinique (Dayan).
 </t>
         </is>
       </c>
@@ -557,10 +553,294 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Éléments biographiques</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Londres</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1938, les Jakobovits, face aux persécutions nazies, se réfugient à Londres.
+Il étudie à la Yechiva Etz Chaim à Londres, avec les rabbins Elya Lopian, Leib Gurwicz et Nachman Shlomo Greenspan, dont il reçoit son diplôme rabbinique (Semikha).
+Il étudie aussi au Jew's College de Londres et à l'université de Londres, dont il obtient un baccalauréat B.A. et un doctorat (Ph.D.).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Immanuel_Jakobovits</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Bioéthique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Immanuel_Jakobovits</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Éléments biographiques</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Famille</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Immanuel Jakobovits épouse Amélie Munk, la fille aînée du rabbin Élie Munk de Paris. Ils ont six enfants. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Immanuel_Jakobovits</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Bioéthique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Immanuel_Jakobovits</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Éléments biographiques</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Le rabbinat</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Synagogue de Brondesbury</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il devient rabbin de la Synagogue de Brondesbury.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Immanuel_Jakobovits</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Bioéthique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Immanuel_Jakobovits</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Éléments biographiques</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Le rabbinat</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Grand-rabbin d'Irlande</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1949, il devient à l'âge de 27 ans, grand-rabbin d'Irlande, position qu'il occupe pendant sept ans.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Immanuel_Jakobovits</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Bioéthique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Immanuel_Jakobovits</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Éléments biographiques</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Le rabbinat</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Rabbin de la Fifth Avenue Synagogue à New York</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De 1956 à 1966, il devient rabbin de la Fifth Avenue Synagogue à Manhattan, New York.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Immanuel_Jakobovits</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Bioéthique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Immanuel_Jakobovits</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Éléments biographiques</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Le rabbinat</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Grand-rabbin du Royaume-Uni</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1966, Immanuel Jakobovits devient le grand-rabbin du Royaume-Uni (Chief Rabbi of the United Hebrew Congregation of the British Commonwealth). Il dirige cette communauté jusqu'à sa retraite en 1991, soit pendant un quart de siècle.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Immanuel_Jakobovits</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Bioéthique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Immanuel_Jakobovits</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Éléments biographiques</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Le rabbinat</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Décès</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il décède à Londres le 31 octobre 1999. Il est enterré à Jérusalem, sur le mont des Oliviers. 
+Amélie Jakobovits décède à Londres le 7 mai 2010, des suites d'une pneumonie. Après des funérailles à Londres, le dimanche 9 mai 2010, elle est enterrée à Jérusalem, en Israël,  sur le mont des Oliviers, aux côtés de son époux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Immanuel_Jakobovits</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Bioéthique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Immanuel_Jakobovits</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>(en) Jewish Medical Ethics, 1959, 1975
 (en) Jewish Law Faces Modern Problems, 1965
@@ -572,31 +852,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Immanuel_Jakobovits</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Bioéthique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Immanuel_Jakobovits</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Immanuel_Jakobovits</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Bioéthique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Immanuel_Jakobovits</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Honneurs</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Il est fait chevalier (Knight) par la reine d'Angleterre le 22 juillet 1981.
 Il est anobli (Life Peer), comme baron Jakobovits de Regent's Park, le 5 février 1987, le premier rabbin nommé à une telle position.
